--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,193 +40,190 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>risk</t>
+    <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -587,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9090909090909091</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -674,19 +671,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -698,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -706,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -724,19 +721,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="L4">
         <v>25</v>
       </c>
-      <c r="K4">
-        <v>0.9375</v>
-      </c>
-      <c r="L4">
-        <v>15</v>
-      </c>
       <c r="M4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -756,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7792207792207793</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C5">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="D5">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -774,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -806,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7647058823529411</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -824,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -848,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -856,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7142857142857143</v>
+        <v>0.3062015503875969</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -874,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>358</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.9019607843137255</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -898,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -906,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6666666666666666</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -924,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.9</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -948,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -956,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5107296137339056</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="C9">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -974,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -998,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1006,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4642857142857143</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1024,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8461538461538461</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L10">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="M10">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1048,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1056,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3793103448275862</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1074,31 +1071,31 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>217</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <v>0.8392857142857143</v>
+      </c>
+      <c r="L11">
+        <v>94</v>
+      </c>
+      <c r="M11">
+        <v>94</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>18</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L11">
-        <v>14</v>
-      </c>
-      <c r="M11">
-        <v>14</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1106,37 +1103,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3375</v>
+        <v>0.08086253369272237</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>53</v>
+        <v>341</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L12">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1148,145 +1145,73 @@
         <v>0</v>
       </c>
       <c r="Q12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>0.796875</v>
+      </c>
+      <c r="L13">
+        <v>102</v>
+      </c>
+      <c r="M13">
+        <v>102</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L14">
+        <v>19</v>
+      </c>
+      <c r="M14">
+        <v>19</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.2826086956521739</v>
-      </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>33</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L13">
-        <v>42</v>
-      </c>
-      <c r="M13">
-        <v>42</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="C14">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>64</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14">
-        <v>0.7758620689655172</v>
-      </c>
-      <c r="L14">
-        <v>45</v>
-      </c>
-      <c r="M14">
-        <v>45</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>13</v>
-      </c>
-    </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.1636363636363636</v>
-      </c>
-      <c r="C15">
-        <v>18</v>
-      </c>
-      <c r="D15">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>92</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7254901960784313</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1298,39 +1223,15 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.1021505376344086</v>
-      </c>
-      <c r="C16">
-        <v>19</v>
-      </c>
-      <c r="D16">
-        <v>19</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>167</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7241379310344828</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
         <v>21</v>
@@ -1348,435 +1249,411 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17">
+        <v>0.7464788732394366</v>
+      </c>
+      <c r="L17">
+        <v>106</v>
+      </c>
+      <c r="M17">
+        <v>106</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18">
+        <v>0.723404255319149</v>
+      </c>
+      <c r="L18">
+        <v>34</v>
+      </c>
+      <c r="M18">
+        <v>34</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L19">
+        <v>26</v>
+      </c>
+      <c r="M19">
+        <v>26</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="L20">
+        <v>86</v>
+      </c>
+      <c r="M20">
+        <v>86</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="L21">
+        <v>36</v>
+      </c>
+      <c r="M21">
+        <v>36</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22">
+        <v>0.6981132075471698</v>
+      </c>
+      <c r="L22">
+        <v>74</v>
+      </c>
+      <c r="M22">
+        <v>74</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23">
+        <v>0.68</v>
+      </c>
+      <c r="L23">
+        <v>34</v>
+      </c>
+      <c r="M23">
+        <v>34</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24">
+        <v>0.675</v>
+      </c>
+      <c r="L24">
+        <v>108</v>
+      </c>
+      <c r="M24">
+        <v>108</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25">
+        <v>0.6083550913838121</v>
+      </c>
+      <c r="L25">
+        <v>233</v>
+      </c>
+      <c r="M25">
+        <v>233</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="L26">
+        <v>29</v>
+      </c>
+      <c r="M26">
+        <v>29</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="L27">
+        <v>20</v>
+      </c>
+      <c r="M27">
+        <v>20</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28">
+        <v>0.5730337078651685</v>
+      </c>
+      <c r="L28">
+        <v>51</v>
+      </c>
+      <c r="M28">
+        <v>51</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29">
+        <v>0.5638297872340425</v>
+      </c>
+      <c r="L29">
+        <v>53</v>
+      </c>
+      <c r="M29">
+        <v>53</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30">
+        <v>0.55</v>
+      </c>
+      <c r="L30">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>0.00715679895901106</v>
-      </c>
-      <c r="C17">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>38</v>
-      </c>
-      <c r="E17">
-        <v>0.71</v>
-      </c>
-      <c r="F17">
-        <v>0.29</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1526</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="L17">
-        <v>28</v>
-      </c>
-      <c r="M17">
-        <v>28</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L18">
-        <v>17</v>
-      </c>
-      <c r="M18">
-        <v>17</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19">
-        <v>0.6986301369863014</v>
-      </c>
-      <c r="L19">
-        <v>51</v>
-      </c>
-      <c r="M19">
-        <v>51</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+      <c r="M30">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20">
-        <v>0.68</v>
-      </c>
-      <c r="L20">
-        <v>17</v>
-      </c>
-      <c r="M20">
-        <v>17</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21">
-        <v>0.6572769953051644</v>
-      </c>
-      <c r="L21">
-        <v>140</v>
-      </c>
-      <c r="M21">
-        <v>140</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L22">
-        <v>11</v>
-      </c>
-      <c r="M22">
-        <v>11</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23">
-        <v>0.64</v>
-      </c>
-      <c r="L23">
-        <v>16</v>
-      </c>
-      <c r="M23">
-        <v>16</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24">
-        <v>0.6</v>
-      </c>
-      <c r="L24">
-        <v>12</v>
-      </c>
-      <c r="M24">
-        <v>12</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25">
-        <v>0.5769230769230769</v>
-      </c>
-      <c r="L25">
-        <v>15</v>
-      </c>
-      <c r="M25">
-        <v>15</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K26">
-        <v>0.5757575757575758</v>
-      </c>
-      <c r="L26">
-        <v>19</v>
-      </c>
-      <c r="M26">
-        <v>19</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
+      <c r="K31">
+        <v>0.5205882352941177</v>
+      </c>
+      <c r="L31">
+        <v>177</v>
+      </c>
+      <c r="M31">
+        <v>177</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K27">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L27">
-        <v>80</v>
-      </c>
-      <c r="M27">
-        <v>80</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28">
-        <v>0.55</v>
-      </c>
-      <c r="L28">
-        <v>11</v>
-      </c>
-      <c r="M28">
-        <v>11</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="L29">
-        <v>12</v>
-      </c>
-      <c r="M29">
-        <v>12</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="L30">
-        <v>10</v>
-      </c>
-      <c r="M30">
-        <v>10</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31">
-        <v>0.52</v>
-      </c>
-      <c r="L31">
-        <v>13</v>
-      </c>
-      <c r="M31">
-        <v>13</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="K32">
-        <v>0.5116279069767442</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L32">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="M32">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1788,21 +1665,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.5108695652173914</v>
+        <v>0.4813559322033898</v>
       </c>
       <c r="L33">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="M33">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1814,21 +1691,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>45</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1840,21 +1717,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1866,21 +1743,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.46875</v>
+        <v>0.4560669456066946</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1892,21 +1769,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.4166666666666667</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L37">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1918,21 +1795,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.4054054054054054</v>
+        <v>0.375</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1944,21 +1821,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.4</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1970,21 +1847,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.3421052631578947</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1996,21 +1873,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.3225806451612903</v>
+        <v>0.1257861635220126</v>
       </c>
       <c r="L41">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2022,21 +1899,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>21</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.1212121212121212</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2048,21 +1925,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>174</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.08133971291866028</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2074,47 +1951,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>192</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.07317073170731707</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L44">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>380</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>0.04761904761904762</v>
+        <v>0.07033639143730887</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2126,163 +2003,241 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K46">
-        <v>0.04288939051918736</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L46">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="N46">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>424</v>
+        <v>833</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K47">
-        <v>0.03571428571428571</v>
+        <v>0.06011560693641618</v>
       </c>
       <c r="L47">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="M47">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>270</v>
+        <v>813</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K48">
-        <v>0.03491495076096687</v>
+        <v>0.05327413984461709</v>
       </c>
       <c r="L48">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M48">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N48">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>1078</v>
+        <v>853</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K49">
-        <v>0.03051643192488263</v>
+        <v>0.04636785162287481</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>413</v>
+        <v>617</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50">
+        <v>0.04526748971193416</v>
+      </c>
+      <c r="L50">
         <v>22</v>
       </c>
-      <c r="K50">
-        <v>0.01738570508692852</v>
-      </c>
-      <c r="L50">
-        <v>27</v>
-      </c>
       <c r="M50">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N50">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>1526</v>
+        <v>464</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K51">
-        <v>0.01068510370835952</v>
+        <v>0.04174484052532833</v>
       </c>
       <c r="L51">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="M51">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="N51">
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
       <c r="O51">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>1574</v>
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K52">
+        <v>0.0293832741362609</v>
+      </c>
+      <c r="L52">
+        <v>91</v>
+      </c>
+      <c r="M52">
+        <v>101</v>
+      </c>
+      <c r="N52">
+        <v>0.9</v>
+      </c>
+      <c r="O52">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K53">
+        <v>0.02282157676348548</v>
+      </c>
+      <c r="L53">
+        <v>22</v>
+      </c>
+      <c r="M53">
+        <v>26</v>
+      </c>
+      <c r="N53">
+        <v>0.85</v>
+      </c>
+      <c r="O53">
+        <v>0.15</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K54">
+        <v>0.01630094043887147</v>
+      </c>
+      <c r="L54">
+        <v>52</v>
+      </c>
+      <c r="M54">
+        <v>63</v>
+      </c>
+      <c r="N54">
+        <v>0.83</v>
+      </c>
+      <c r="O54">
+        <v>0.17</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>3138</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,27 +43,27 @@
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>low</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -73,148 +73,151 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>good</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>retail</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>san</t>
   </si>
   <si>
     <t>19</t>
@@ -584,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,7 +598,7 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -671,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -695,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -703,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6666666666666666</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -753,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6301369863013698</v>
+        <v>0.6472602739726028</v>
       </c>
       <c r="C5">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D5">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -771,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>21</v>
@@ -803,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4871794871794872</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -821,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K6">
-        <v>0.9347826086956522</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -845,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -853,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3062015503875969</v>
+        <v>0.32</v>
       </c>
       <c r="C7">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -871,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>358</v>
+        <v>51</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -895,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -903,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2933333333333333</v>
+        <v>0.3003875968992248</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -921,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>53</v>
+        <v>361</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8636363636363636</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L8">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="M8">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -945,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2592592592592592</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C9">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -971,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,13 +1006,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.174496644295302</v>
+        <v>0.2275132275132275</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1021,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8448275862068966</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L10">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1045,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1053,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1388888888888889</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1071,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8392857142857143</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1095,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1103,37 +1106,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.08086253369272237</v>
+        <v>0.0564516129032258</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F12">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K12">
-        <v>0.8292682926829268</v>
+        <v>0.7734375</v>
       </c>
       <c r="L12">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="M12">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1145,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1153,13 +1156,13 @@
         <v>29</v>
       </c>
       <c r="K13">
-        <v>0.796875</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L13">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M13">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1182,13 @@
         <v>30</v>
       </c>
       <c r="K14">
-        <v>0.7916666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1197,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1205,13 +1208,13 @@
         <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7619047619047619</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1223,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1231,13 +1234,13 @@
         <v>32</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1257,13 +1260,13 @@
         <v>33</v>
       </c>
       <c r="K17">
-        <v>0.7464788732394366</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L17">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M17">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1275,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1309,13 +1312,13 @@
         <v>35</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1327,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1335,13 +1338,13 @@
         <v>36</v>
       </c>
       <c r="K20">
-        <v>0.7166666666666667</v>
+        <v>0.70625</v>
       </c>
       <c r="L20">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="M20">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1353,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1361,13 +1364,13 @@
         <v>37</v>
       </c>
       <c r="K21">
-        <v>0.7058823529411765</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1379,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1387,13 +1390,13 @@
         <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6981132075471698</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1405,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1413,13 +1416,13 @@
         <v>39</v>
       </c>
       <c r="K23">
-        <v>0.68</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1431,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1439,13 +1442,13 @@
         <v>40</v>
       </c>
       <c r="K24">
-        <v>0.675</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L24">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1457,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1465,13 +1468,13 @@
         <v>41</v>
       </c>
       <c r="K25">
-        <v>0.6083550913838121</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L25">
-        <v>233</v>
+        <v>59</v>
       </c>
       <c r="M25">
-        <v>233</v>
+        <v>59</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1483,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1491,13 +1494,13 @@
         <v>42</v>
       </c>
       <c r="K26">
-        <v>0.6041666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1509,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1543,13 +1546,13 @@
         <v>44</v>
       </c>
       <c r="K28">
-        <v>0.5730337078651685</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L28">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1561,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1569,13 +1572,13 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>0.5638297872340425</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L29">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1587,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1595,13 +1598,13 @@
         <v>46</v>
       </c>
       <c r="K30">
-        <v>0.55</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1613,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1621,13 +1624,13 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>0.5205882352941177</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L31">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1639,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>163</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1647,13 +1650,13 @@
         <v>48</v>
       </c>
       <c r="K32">
-        <v>0.5076923076923077</v>
+        <v>0.5535248041775457</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1665,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1673,13 +1676,13 @@
         <v>49</v>
       </c>
       <c r="K33">
-        <v>0.4813559322033898</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="L33">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="M33">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1691,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1699,13 +1702,13 @@
         <v>50</v>
       </c>
       <c r="K34">
-        <v>0.4743589743589743</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1717,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1725,13 +1728,13 @@
         <v>51</v>
       </c>
       <c r="K35">
-        <v>0.4666666666666667</v>
+        <v>0.4779661016949153</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1743,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>24</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1751,13 +1754,13 @@
         <v>52</v>
       </c>
       <c r="K36">
-        <v>0.4560669456066946</v>
+        <v>0.475</v>
       </c>
       <c r="L36">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1769,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1777,7 +1780,7 @@
         <v>53</v>
       </c>
       <c r="K37">
-        <v>0.410958904109589</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L37">
         <v>30</v>
@@ -1795,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1803,13 +1806,13 @@
         <v>54</v>
       </c>
       <c r="K38">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1821,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1829,13 +1832,13 @@
         <v>55</v>
       </c>
       <c r="K39">
-        <v>0.3571428571428572</v>
+        <v>0.4309623430962343</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1847,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>45</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1855,13 +1858,13 @@
         <v>56</v>
       </c>
       <c r="K40">
-        <v>0.1574803149606299</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1873,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>107</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1881,25 +1884,25 @@
         <v>57</v>
       </c>
       <c r="K41">
-        <v>0.1257861635220126</v>
+        <v>0.2816901408450704</v>
       </c>
       <c r="L41">
         <v>20</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>139</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1907,13 +1910,13 @@
         <v>58</v>
       </c>
       <c r="K42">
-        <v>0.1004784688995215</v>
+        <v>0.1209302325581395</v>
       </c>
       <c r="L42">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1925,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>376</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1933,13 +1936,13 @@
         <v>59</v>
       </c>
       <c r="K43">
-        <v>0.08653846153846154</v>
+        <v>0.1129807692307692</v>
       </c>
       <c r="L43">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M43">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1951,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1959,25 +1962,25 @@
         <v>60</v>
       </c>
       <c r="K44">
-        <v>0.08333333333333333</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M44">
         <v>21</v>
       </c>
       <c r="N44">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1985,25 +1988,25 @@
         <v>61</v>
       </c>
       <c r="K45">
-        <v>0.07033639143730887</v>
+        <v>0.08633093525179857</v>
       </c>
       <c r="L45">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M45">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>304</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2011,13 +2014,13 @@
         <v>62</v>
       </c>
       <c r="K46">
-        <v>0.06823266219239374</v>
+        <v>0.07033639143730887</v>
       </c>
       <c r="L46">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2029,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>833</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2037,25 +2040,25 @@
         <v>63</v>
       </c>
       <c r="K47">
-        <v>0.06011560693641618</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="L47">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="M47">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="N47">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>813</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2063,25 +2066,25 @@
         <v>64</v>
       </c>
       <c r="K48">
-        <v>0.05327413984461709</v>
+        <v>0.06163328197226502</v>
       </c>
       <c r="L48">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M48">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>853</v>
+        <v>609</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2089,25 +2092,25 @@
         <v>65</v>
       </c>
       <c r="K49">
-        <v>0.04636785162287481</v>
+        <v>0.05549389567147614</v>
       </c>
       <c r="L49">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M49">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="N49">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>617</v>
+        <v>851</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2115,13 +2118,13 @@
         <v>66</v>
       </c>
       <c r="K50">
-        <v>0.04526748971193416</v>
+        <v>0.05480984340044743</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2133,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>464</v>
+        <v>845</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2141,25 +2144,25 @@
         <v>67</v>
       </c>
       <c r="K51">
-        <v>0.04174484052532833</v>
+        <v>0.0530565167243368</v>
       </c>
       <c r="L51">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="M51">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="N51">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>2043</v>
+        <v>821</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2167,25 +2170,25 @@
         <v>68</v>
       </c>
       <c r="K52">
-        <v>0.0293832741362609</v>
+        <v>0.0473511486169714</v>
       </c>
       <c r="L52">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="M52">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="N52">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="O52">
-        <v>0.09999999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>3006</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2193,25 +2196,25 @@
         <v>69</v>
       </c>
       <c r="K53">
-        <v>0.02282157676348548</v>
+        <v>0.03264382676147382</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="M53">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="N53">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="O53">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>942</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2219,25 +2222,51 @@
         <v>70</v>
       </c>
       <c r="K54">
-        <v>0.01630094043887147</v>
+        <v>0.02904564315352697</v>
       </c>
       <c r="L54">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="M54">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="N54">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="O54">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>3138</v>
+        <v>936</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K55">
+        <v>0.0206961429915334</v>
+      </c>
+      <c r="L55">
+        <v>66</v>
+      </c>
+      <c r="M55">
+        <v>78</v>
+      </c>
+      <c r="N55">
+        <v>0.85</v>
+      </c>
+      <c r="O55">
+        <v>0.15</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>3123</v>
       </c>
     </row>
   </sheetData>
